--- a/S4 Modelling neuromusculoskeletal deficits/Clinical Exam/CE_BCN_CP1.xlsx
+++ b/S4 Modelling neuromusculoskeletal deficits/Clinical Exam/CE_BCN_CP1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0167909\Documents\Workshop BCN\CP4 - CP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/linghuix_ug_kth_se/Documents/ExMaterials/7-Doctor/Research/2-workshop/S4 Modelling neuromusculoskeletal deficits/Clinical Exam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{570265E3-CDEE-48C5-9F5F-FEEF4977017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4711EB88-6766-4094-8A99-7FBB192AA971}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{570265E3-CDEE-48C5-9F5F-FEEF4977017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91DA52E1-7A6E-4EC9-B54B-B9538545524D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,16 +551,16 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -579,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -635,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -643,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -675,7 +675,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -683,7 +683,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -699,7 +699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -707,7 +707,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -755,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -779,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -827,7 +827,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -843,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -851,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -867,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -875,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -891,7 +891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -899,7 +899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -907,7 +907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -915,7 +915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -923,7 +923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -931,7 +931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -939,7 +939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -947,7 +947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -955,7 +955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -963,7 +963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -971,7 +971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
@@ -990,7 +990,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
